--- a/testdata/HackathonData.xlsx
+++ b/testdata/HackathonData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CTS_Training\Practicals\HackathonProject\Hackathon\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B97CEAD-993B-43CC-A4BC-B723E3371701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD855FF0-B6D5-4CF8-BF67-40E75A2BFDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{895B51BC-F283-4E99-B614-C0B36950008B}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{895B51BC-F283-4E99-B614-C0B36950008B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>extractListOfLanguagesOffered</t>
+  </si>
+  <si>
+    <t>TC_012</t>
+  </si>
+  <si>
+    <t>extractLevelsPerLanguage</t>
   </si>
 </sst>
 </file>
@@ -612,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3347BB-9020-4B4C-B874-6FE903F4D133}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1013,6 +1019,38 @@
         <v>52</v>
       </c>
     </row>
+    <row r="13" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/HackathonData.xlsx
+++ b/testdata/HackathonData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CTS_Training\Practicals\HackathonProject\Hackathon\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD855FF0-B6D5-4CF8-BF67-40E75A2BFDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C425BB68-0A3F-4395-9093-63575B46F21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{895B51BC-F283-4E99-B614-C0B36950008B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="56">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -110,24 +110,12 @@
     <t>2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>checkTotalLearningHours</t>
   </si>
   <si>
@@ -140,9 +128,6 @@
     <t>8</t>
   </si>
   <si>
-    <t>verifyIfCourseCardsArePresent</t>
-  </si>
-  <si>
     <t>verifyIfCourseCardAndLinkAreSame</t>
   </si>
   <si>
@@ -161,15 +146,6 @@
     <t>11</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>TC_009</t>
   </si>
   <si>
@@ -182,21 +158,6 @@
     <t>Language Learning</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>Explore Categories</t>
   </si>
   <si>
@@ -222,6 +183,27 @@
   </si>
   <si>
     <t>extractLevelsPerLanguage</t>
+  </si>
+  <si>
+    <t>verifyIfCourseCardsArePresentAfterApplyingFilters</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>TC_013</t>
+  </si>
+  <si>
+    <t>TC_014</t>
+  </si>
+  <si>
+    <t>getCountOfLanguages</t>
+  </si>
+  <si>
+    <t>getCountOfLevels</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
 </sst>
 </file>
@@ -618,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3347BB-9020-4B4C-B874-6FE903F4D133}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -637,7 +619,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -669,7 +651,7 @@
     </row>
     <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -681,27 +663,27 @@
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -728,18 +710,18 @@
         <v>14</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -759,19 +741,19 @@
       <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>33</v>
+      <c r="J4" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -797,13 +779,13 @@
     </row>
     <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -829,13 +811,13 @@
     </row>
     <row r="7" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -861,13 +843,13 @@
     </row>
     <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -893,162 +875,226 @@
     </row>
     <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="H11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="C14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/HackathonData.xlsx
+++ b/testdata/HackathonData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CTS_Training\Practicals\HackathonProject\Hackathon\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C425BB68-0A3F-4395-9093-63575B46F21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CC1567-1151-4DA9-868F-5EEE9F883097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{895B51BC-F283-4E99-B614-C0B36950008B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{895B51BC-F283-4E99-B614-C0B36950008B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="79">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -204,13 +204,83 @@
   </si>
   <si>
     <t>27</t>
+  </si>
+  <si>
+    <t>TS003</t>
+  </si>
+  <si>
+    <t>TC_015</t>
+  </si>
+  <si>
+    <t>checkIfEnterpriseIsPresent</t>
+  </si>
+  <si>
+    <t>For Enterprise</t>
+  </si>
+  <si>
+    <t>TC_016</t>
+  </si>
+  <si>
+    <t>clickOnForEnterpriseOption</t>
+  </si>
+  <si>
+    <t>Custom Employee Development Programs | Coursera for Business</t>
+  </si>
+  <si>
+    <t>TC_017</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/business?utm_campaign=website&amp;utm_content=corp-to-home-footer-for-enterprise&amp;utm_medium=coursera&amp;utm_source=enterprise</t>
+  </si>
+  <si>
+    <t>verifyClickActionOnForEnterpriseOption</t>
+  </si>
+  <si>
+    <t>verifyFormPresenceInEnterprisePage</t>
+  </si>
+  <si>
+    <t>TC_018</t>
+  </si>
+  <si>
+    <t>By submitting your info in the form above, you agree to our Terms of Use and Privacy Notice. We may use this info to contact you and/or use data from third parties to personalize your experience.</t>
+  </si>
+  <si>
+    <t>TC_019</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>VNH</t>
+  </si>
+  <si>
+    <t>Must be valid email.
+example@yourdomain.com</t>
+  </si>
+  <si>
+    <t>Top Web Development Courses - Learn Web Development Online</t>
+  </si>
+  <si>
+    <t>TC_020</t>
+  </si>
+  <si>
+    <t>validateMandatoryFieldErrorOnFormBasedOnEmail</t>
+  </si>
+  <si>
+    <t>validateMandatoryFieldErrorOnFormBasedOnPhoneNumber</t>
+  </si>
+  <si>
+    <t>VNH@gmail.com</t>
+  </si>
+  <si>
+    <t>This field is required.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +298,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -250,10 +328,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -266,8 +345,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -600,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3347BB-9020-4B4C-B874-6FE903F4D133}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -611,6 +694,8 @@
     <col min="1" max="1" width="13.7265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.1796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="29.36328125" customWidth="1"/>
     <col min="6" max="7" width="8.7265625" style="1"/>
     <col min="8" max="8" width="9.453125" customWidth="1"/>
     <col min="9" max="9" width="12.90625" customWidth="1"/>
@@ -649,7 +734,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -681,7 +766,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -713,7 +798,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -745,7 +830,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -759,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -809,7 +894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -841,7 +926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -969,7 +1054,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1001,7 +1086,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1033,7 +1118,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1065,7 +1150,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1097,9 +1182,204 @@
         <v>50</v>
       </c>
     </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="115" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21">
+        <v>876</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G21" r:id="rId1" xr:uid="{B4B206C5-3475-4AA3-BDC0-E0FB66B3C99A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/testdata/HackathonData.xlsx
+++ b/testdata/HackathonData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CTS_Training\Practicals\HackathonProject\Hackathon\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C425BB68-0A3F-4395-9093-63575B46F21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3DC420-9DDA-4EAC-9539-DB7BA86BE21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{895B51BC-F283-4E99-B614-C0B36950008B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{895B51BC-F283-4E99-B614-C0B36950008B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="79">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -204,13 +204,83 @@
   </si>
   <si>
     <t>27</t>
+  </si>
+  <si>
+    <t>TS003</t>
+  </si>
+  <si>
+    <t>TC_015</t>
+  </si>
+  <si>
+    <t>checkIfEnterpriseIsPresent</t>
+  </si>
+  <si>
+    <t>For Enterprise</t>
+  </si>
+  <si>
+    <t>TC_016</t>
+  </si>
+  <si>
+    <t>clickOnForEnterpriseOption</t>
+  </si>
+  <si>
+    <t>Custom Employee Development Programs | Coursera for Business</t>
+  </si>
+  <si>
+    <t>TC_017</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/business?utm_campaign=website&amp;utm_content=corp-to-home-footer-for-enterprise&amp;utm_medium=coursera&amp;utm_source=enterprise</t>
+  </si>
+  <si>
+    <t>verifyClickActionOnForEnterpriseOption</t>
+  </si>
+  <si>
+    <t>verifyFormPresenceInEnterprisePage</t>
+  </si>
+  <si>
+    <t>TC_018</t>
+  </si>
+  <si>
+    <t>By submitting your info in the form above, you agree to our Terms of Use and Privacy Notice. We may use this info to contact you and/or use data from third parties to personalize your experience.</t>
+  </si>
+  <si>
+    <t>TC_019</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>VNH</t>
+  </si>
+  <si>
+    <t>Must be valid email.
+example@yourdomain.com</t>
+  </si>
+  <si>
+    <t>Top Web Development Courses - Learn Web Development Online</t>
+  </si>
+  <si>
+    <t>TC_020</t>
+  </si>
+  <si>
+    <t>validateMandatoryFieldErrorOnFormBasedOnEmail</t>
+  </si>
+  <si>
+    <t>validateMandatoryFieldErrorOnFormBasedOnPhoneNumber</t>
+  </si>
+  <si>
+    <t>VNH@gmail.com</t>
+  </si>
+  <si>
+    <t>This field is required.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +298,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -250,10 +328,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -266,8 +345,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -600,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3347BB-9020-4B4C-B874-6FE903F4D133}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -611,6 +694,8 @@
     <col min="1" max="1" width="13.7265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.1796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="29.36328125" customWidth="1"/>
     <col min="6" max="7" width="8.7265625" style="1"/>
     <col min="8" max="8" width="9.453125" customWidth="1"/>
     <col min="9" max="9" width="12.90625" customWidth="1"/>
@@ -649,7 +734,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -681,7 +766,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -713,7 +798,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -745,7 +830,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -759,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -809,7 +894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -841,7 +926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -969,7 +1054,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1001,7 +1086,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1033,7 +1118,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1065,7 +1150,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1097,9 +1182,204 @@
         <v>50</v>
       </c>
     </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="115" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21">
+        <v>876</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G21" r:id="rId1" xr:uid="{B4B206C5-3475-4AA3-BDC0-E0FB66B3C99A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>